--- a/data.xlsx
+++ b/data.xlsx
@@ -1,32 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>genere</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>waist</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
+    <t>body_fat</t>
+  </si>
+  <si>
+    <t>ffmi</t>
+  </si>
+  <si>
+    <t>body_fat_100</t>
+  </si>
+  <si>
+    <t>ffmi_100</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>11.793839225255454</t>
+  </si>
+  <si>
+    <t>22.267968488702877</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>12.676882872468582</t>
+  </si>
+  <si>
+    <t>22.050536996622082</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,21 +122,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +421,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>171</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>171</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>171</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>171</v>
+      </c>
+      <c r="C6" t="n">
+        <v>72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>171</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>genere</t>
   </si>
@@ -80,6 +80,21 @@
   </si>
   <si>
     <t>77</t>
+  </si>
+  <si>
+    <t>10.891930615011972</t>
+  </si>
+  <si>
+    <t>22.490045093256516</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
 </sst>
 </file>
@@ -131,7 +146,7 @@
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -426,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -670,6 +685,41 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>171</v>
+      </c>
+      <c r="C8" t="n">
+        <v>72</v>
+      </c>
+      <c r="D8" t="n">
+        <v>41</v>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>genere</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>82</t>
+  </si>
+  <si>
+    <t>11.345298352805912</t>
+  </si>
+  <si>
+    <t>22.53000567498229</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
 </sst>
 </file>
@@ -441,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -720,6 +732,41 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>171</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>genere</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>75</t>
+  </si>
+  <si>
+    <t>9.97024729940415</t>
+  </si>
+  <si>
+    <t>23.02487957711261</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
 </sst>
 </file>
@@ -152,12 +164,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -453,13 +466,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -765,6 +778,41 @@
       </c>
       <c r="K9" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>171</v>
+      </c>
+      <c r="C10" t="n">
+        <v>73</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>genere</t>
   </si>
@@ -119,6 +119,45 @@
   </si>
   <si>
     <t>86</t>
+  </si>
+  <si>
+    <t>22.80935744418139</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>8.063563265420782</t>
+  </si>
+  <si>
+    <t>23.280795683834608</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>9.02781014129306</t>
+  </si>
+  <si>
+    <t>24.81571731123813</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>22.79478183066286</t>
   </si>
 </sst>
 </file>
@@ -466,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -815,6 +854,181 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>171</v>
+      </c>
+      <c r="C11" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>79</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>171</v>
+      </c>
+      <c r="C12" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>41</v>
+      </c>
+      <c r="E12" t="n">
+        <v>77</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>171</v>
+      </c>
+      <c r="C13" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>41</v>
+      </c>
+      <c r="E13" t="n">
+        <v>77</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>171</v>
+      </c>
+      <c r="C14" t="n">
+        <v>78</v>
+      </c>
+      <c r="D14" t="n">
+        <v>41</v>
+      </c>
+      <c r="E14" t="n">
+        <v>78</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>171</v>
+      </c>
+      <c r="C15" t="n">
+        <v>73</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,165 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
-  <si>
-    <t>genere</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>neck</t>
-  </si>
-  <si>
-    <t>waist</t>
-  </si>
-  <si>
-    <t>hip</t>
-  </si>
-  <si>
-    <t>body_fat</t>
-  </si>
-  <si>
-    <t>ffmi</t>
-  </si>
-  <si>
-    <t>body_fat_100</t>
-  </si>
-  <si>
-    <t>ffmi_100</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>11.793839225255454</t>
-  </si>
-  <si>
-    <t>22.267968488702877</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>12.676882872468582</t>
-  </si>
-  <si>
-    <t>22.050536996622082</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>10.891930615011972</t>
-  </si>
-  <si>
-    <t>22.490045093256516</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>11.345298352805912</t>
-  </si>
-  <si>
-    <t>22.53000567498229</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>9.97024729940415</t>
-  </si>
-  <si>
-    <t>23.02487957711261</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>22.80935744418139</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>8.063563265420782</t>
-  </si>
-  <si>
-    <t>23.280795683834608</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>9.02781014129306</t>
-  </si>
-  <si>
-    <t>24.81571731123813</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>22.79478183066286</t>
-  </si>
-</sst>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -203,13 +54,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -505,7 +355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -513,44 +363,68 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>genere</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>neck</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>waist</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>hip</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>body_fat</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ffmi</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>body_fat_100</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ffmi_100</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>171</v>
@@ -567,16 +441,22 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>171</v>
@@ -593,25 +473,37 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.793839225255454</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22.267968488702877</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>171</v>
@@ -628,25 +520,37 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.793839225255454</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22.267968488702877</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>171</v>
@@ -663,25 +567,37 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.793839225255454</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22.267968488702877</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>171</v>
@@ -698,25 +614,37 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11.793839225255454</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22.267968488702877</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>171</v>
@@ -733,25 +661,37 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12.676882872468582</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22.050536996622082</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>171</v>
@@ -768,25 +708,37 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10.891930615011972</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>22.490045093256516</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>171</v>
@@ -803,25 +755,37 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>11.345298352805912</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>22.53000567498229</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>171</v>
@@ -838,25 +802,37 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9.97024729940415</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>23.02487957711261</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>171</v>
@@ -873,25 +849,37 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>9.97024729940415</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>22.80935744418139</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>171</v>
@@ -908,25 +896,37 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>8.063563265420782</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>23.280795683834608</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>171</v>
@@ -943,25 +943,37 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>11</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>8.063563265420782</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>23.280795683834608</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>171</v>
@@ -978,25 +990,37 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>11</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>9.02781014129306</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>24.81571731123813</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>171</v>
@@ -1013,20 +1037,359 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10.891930615011972</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>22.79478183066286</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>171</v>
+      </c>
+      <c r="C16" t="n">
+        <v>74</v>
+      </c>
+      <c r="D16" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10.891930615011972</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>23.0995185680692</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>171</v>
+      </c>
+      <c r="C17" t="n">
+        <v>75</v>
+      </c>
+      <c r="D17" t="n">
+        <v>40</v>
+      </c>
+      <c r="E17" t="n">
+        <v>72</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.964173031921007</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>25.18115014057633</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>171</v>
+      </c>
+      <c r="C18" t="n">
+        <v>75</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40</v>
+      </c>
+      <c r="E18" t="n">
+        <v>82</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>13.541908384080443</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>22.724564690653423</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>162</v>
+      </c>
+      <c r="C19" t="n">
+        <v>75</v>
+      </c>
+      <c r="D19" t="n">
+        <v>38</v>
+      </c>
+      <c r="E19" t="n">
+        <v>88</v>
+      </c>
+      <c r="F19" t="n">
+        <v>108</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>37.93716251552877</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>18.834293291172614</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>162</v>
+      </c>
+      <c r="C20" t="n">
+        <v>75</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36</v>
+      </c>
+      <c r="E20" t="n">
+        <v>88</v>
+      </c>
+      <c r="F20" t="n">
+        <v>108</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>38.85863542681096</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>18.570955124939708</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>162</v>
+      </c>
+      <c r="C21" t="n">
+        <v>75</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36</v>
+      </c>
+      <c r="E21" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" t="n">
+        <v>108</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>35.12276054533663</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19.63859197949913</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>162</v>
+      </c>
+      <c r="C22" t="n">
+        <v>75</v>
+      </c>
+      <c r="D22" t="n">
+        <v>36</v>
+      </c>
+      <c r="E22" t="n">
+        <v>80</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>31.246171394864064</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>20.74644210251941</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -51,16 +51,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1392,8 +1392,55 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>171</v>
+      </c>
+      <c r="C23" t="n">
+        <v>83</v>
+      </c>
+      <c r="D23" t="n">
+        <v>42</v>
+      </c>
+      <c r="E23" t="n">
+        <v>91</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>19.152879421730688</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>23.497295229288852</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>